--- a/data/trans_dic/P55$familiarvive-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiarvive-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.266795392481981</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1971587301990378</v>
+        <v>0.1971587301990377</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09536132650646498</v>
+        <v>0.1115369791979588</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02299929450004773</v>
+        <v>0.02254122034283446</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1028703257360132</v>
+        <v>0.09789533220998738</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02405185081171287</v>
+        <v>0.02363485577997674</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2397719017713305</v>
+        <v>0.2378274758408634</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2398067503610735</v>
+        <v>0.2407273791973306</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1987272573819265</v>
+        <v>0.1956092595338229</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1593522066190973</v>
+        <v>0.1622884410061837</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2286368955084014</v>
+        <v>0.2295323961147171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1856471461733002</v>
+        <v>0.1841222716000705</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1920599378244266</v>
+        <v>0.1936759034576853</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.145433383963918</v>
+        <v>0.1408500976117446</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3567364399240787</v>
+        <v>0.3577154154082295</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2110781885270608</v>
+        <v>0.2282499684157512</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3518058344165376</v>
+        <v>0.3301431084254548</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2391729257676456</v>
+        <v>0.2539829542920665</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4225888145976694</v>
+        <v>0.4164820880703872</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.42738468003297</v>
+        <v>0.4243061984312014</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3973989570874281</v>
+        <v>0.3893881866636586</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3011555224549229</v>
+        <v>0.3072212611325082</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3777323430803025</v>
+        <v>0.3801073957926653</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3310660799632173</v>
+        <v>0.3332987139048066</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3499204820463183</v>
+        <v>0.3474532885273653</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2576672878900308</v>
+        <v>0.2645283793617055</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05938783463641209</v>
+        <v>0.05921894757717559</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1349450110118782</v>
+        <v>0.1392601071408599</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02568882047832023</v>
+        <v>0.02701507398618836</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04280743877484407</v>
+        <v>0.04161849621285533</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1406198612084625</v>
+        <v>0.1385717486795872</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2410738950861957</v>
+        <v>0.245654393072722</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1522558081615097</v>
+        <v>0.1552415633595937</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1356939510023583</v>
+        <v>0.1358854201266411</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1200997882308728</v>
+        <v>0.1237925851569184</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2409316811792007</v>
+        <v>0.2378360883194454</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1431245091905886</v>
+        <v>0.1353472326682325</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.117685211669189</v>
+        <v>0.1149023706149645</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2439524990562195</v>
+        <v>0.2580415558817299</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4642444669880908</v>
+        <v>0.4809952362123701</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2395305280632086</v>
+        <v>0.2411139700154804</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1547779852039114</v>
+        <v>0.1622083246243685</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.364021898626755</v>
+        <v>0.36059937757812</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.438827128889784</v>
+        <v>0.4494303813810239</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3764804357577407</v>
+        <v>0.3770335401502571</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2396078968090857</v>
+        <v>0.2384411897427192</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2701329739986222</v>
+        <v>0.2700115512979294</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4152235903587988</v>
+        <v>0.4144523664760726</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3060382110038949</v>
+        <v>0.3094872996004237</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1961449127679983</v>
+        <v>0.1946600012594036</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.08055212571883424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1720909615922643</v>
+        <v>0.1720909615922644</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3328523810216643</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06877394392659775</v>
+        <v>0.0436106746002379</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09918359936855096</v>
+        <v>0.1000873332746463</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08812913963994577</v>
+        <v>0.09510119366401174</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.190628165029144</v>
+        <v>0.1949342524117079</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0750901683024558</v>
+        <v>0.07614336683319924</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1321028328790205</v>
+        <v>0.1348840805110887</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1309424236552681</v>
+        <v>0.1380047505713228</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1788591720579847</v>
+        <v>0.1741792033958731</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1152183495611281</v>
+        <v>0.1168636168925495</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1063578206456976</v>
+        <v>0.1167534972741497</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1371677861428171</v>
+        <v>0.1381060687874352</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4505044921987073</v>
+        <v>0.4126616260390046</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3556562418759513</v>
+        <v>0.3547550926633363</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2381513729802846</v>
+        <v>0.2726188940185925</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3044667330483355</v>
+        <v>0.3071355493525144</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5015315390577805</v>
+        <v>0.4929055106783953</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2993117603291875</v>
+        <v>0.2886564586256357</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3812919201691806</v>
+        <v>0.3806624779007103</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2555685809321733</v>
+        <v>0.2705100261028394</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4186570437581316</v>
+        <v>0.4161920881382788</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2790080800714697</v>
+        <v>0.2785067207438303</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2871253805543453</v>
+        <v>0.3072034864123672</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2415299733769513</v>
+        <v>0.2445662360122811</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.2105575093515017</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09714416617349038</v>
+        <v>0.09714416617349039</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2081095191986718</v>
@@ -1093,7 +1093,7 @@
         <v>0.2120572162011037</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2228285126690665</v>
+        <v>0.2228285126690664</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1139240756401007</v>
@@ -1105,7 +1105,7 @@
         <v>0.2114288607879831</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1640628635738817</v>
+        <v>0.1640628635738818</v>
       </c>
     </row>
     <row r="14">
@@ -1120,34 +1120,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05232490029719124</v>
+        <v>0.05234830822192526</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04448272084720269</v>
+        <v>0.03459473976517953</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0837756644087603</v>
+        <v>0.07845495249741702</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05672635815607917</v>
+        <v>0.05677036111767743</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1484656453135471</v>
+        <v>0.1513605398082204</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09344289103451919</v>
+        <v>0.09547162827825531</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1056606877574555</v>
+        <v>0.101432468905862</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1141742327221201</v>
+        <v>0.111421163374322</v>
       </c>
     </row>
     <row r="15">
@@ -1159,37 +1159,37 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.4429169674988971</v>
+        <v>0.4068862327933992</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4614768142886503</v>
+        <v>0.4911642173983899</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.204544715385255</v>
+        <v>0.1879276104314643</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5182077619449882</v>
+        <v>0.5806041874174727</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4325180104368048</v>
+        <v>0.4158011103282531</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4301230626811779</v>
+        <v>0.4752218048656183</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3151148527361976</v>
+        <v>0.3116042255332684</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3379203053951277</v>
+        <v>0.353563309467727</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3532666315277315</v>
+        <v>0.3463361760559397</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3755254367192117</v>
+        <v>0.3718107665201465</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.227818048866137</v>
+        <v>0.2251062155867943</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.2651123384163253</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2028048278043617</v>
+        <v>0.2028048278043618</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2481283652268892</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1040253384837474</v>
+        <v>0.1040658069577452</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1229413797385333</v>
+        <v>0.119612604459214</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08620722072269646</v>
+        <v>0.08624453001173751</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07383490621757161</v>
+        <v>0.07511131833914755</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.231198464799411</v>
+        <v>0.2358064658345872</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2322683748653832</v>
+        <v>0.2334668409393366</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2128576799042312</v>
+        <v>0.2041214794765323</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1725534712153755</v>
+        <v>0.1707396011923234</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2023379727011335</v>
+        <v>0.2016882019510221</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2090186172189534</v>
+        <v>0.2062716062264394</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.181860339288981</v>
+        <v>0.1846235930462998</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1491543273039809</v>
+        <v>0.1489811409046221</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.226037772604135</v>
+        <v>0.2326568315047975</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2686592947796684</v>
+        <v>0.2652059087455818</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2048309942250324</v>
+        <v>0.206780530030881</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1548836400380955</v>
+        <v>0.1486105718090577</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3597346958473072</v>
+        <v>0.3686493785837449</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3452047603087624</v>
+        <v>0.3455499446112609</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3374543950999424</v>
+        <v>0.3311853029564676</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2368912451088089</v>
+        <v>0.2347116108551129</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2959147091317635</v>
+        <v>0.304299859990502</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3006207955441334</v>
+        <v>0.2932197596004708</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2740943753167766</v>
+        <v>0.2762268496219777</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2043917857538874</v>
+        <v>0.1989620437815532</v>
       </c>
     </row>
     <row r="19">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3728</v>
+        <v>4360</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4062</v>
+        <v>3866</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>26700</v>
+        <v>26483</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>23578</v>
+        <v>23668</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>21204</v>
+        <v>20872</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13681</v>
+        <v>13933</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>34398</v>
+        <v>34532</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>27147</v>
+        <v>26924</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>28077</v>
+        <v>28314</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>16420</v>
+        <v>15903</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13945</v>
+        <v>13983</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10113</v>
+        <v>10935</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13893</v>
+        <v>13037</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6470</v>
+        <v>6870</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>47057</v>
+        <v>46377</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>42020</v>
+        <v>41717</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>42403</v>
+        <v>41548</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>25856</v>
+        <v>26377</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>56829</v>
+        <v>57186</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>48411</v>
+        <v>48738</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>51155</v>
+        <v>50795</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>29092</v>
+        <v>29867</v>
       </c>
     </row>
     <row r="8">
@@ -1776,40 +1776,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2982</v>
+        <v>2974</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5551</v>
+        <v>5728</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>857</v>
+        <v>901</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2356</v>
+        <v>2290</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8335</v>
+        <v>8213</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22672</v>
+        <v>23103</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>11033</v>
+        <v>11249</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>16742</v>
+        <v>16766</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>13150</v>
+        <v>13554</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>32569</v>
+        <v>32151</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>15146</v>
+        <v>14323</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>20996</v>
+        <v>20499</v>
       </c>
     </row>
     <row r="11">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12251</v>
+        <v>12958</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19097</v>
+        <v>19786</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7992</v>
+        <v>8045</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>8517</v>
+        <v>8926</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21576</v>
+        <v>21373</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>41269</v>
+        <v>42267</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27281</v>
+        <v>27321</v>
       </c>
       <c r="J11" s="6" t="n">
+        <v>29419</v>
+      </c>
+      <c r="K11" s="6" t="n">
         <v>29563</v>
       </c>
-      <c r="K11" s="6" t="n">
-        <v>29577</v>
-      </c>
       <c r="L11" s="6" t="n">
-        <v>56130</v>
+        <v>56026</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>32387</v>
+        <v>32752</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>34993</v>
+        <v>34729</v>
       </c>
     </row>
     <row r="12">
@@ -1956,40 +1956,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1598</v>
+        <v>1013</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3974</v>
+        <v>4010</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3223</v>
+        <v>3478</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7955</v>
+        <v>8135</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4348</v>
+        <v>4409</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8418</v>
+        <v>8595</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11184</v>
+        <v>11787</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11620</v>
+        <v>11316</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11288</v>
+        <v>11449</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>9887</v>
+        <v>10854</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>16732</v>
+        <v>16847</v>
       </c>
     </row>
     <row r="15">
@@ -2000,40 +2000,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10469</v>
+        <v>9589</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14250</v>
+        <v>14214</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6963</v>
+        <v>7971</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11136</v>
+        <v>11233</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20930</v>
+        <v>20570</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17330</v>
+        <v>16713</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24298</v>
+        <v>24258</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>21828</v>
+        <v>23104</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27200</v>
+        <v>27040</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>27334</v>
+        <v>27285</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>26692</v>
+        <v>28558</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>29463</v>
+        <v>29833</v>
       </c>
     </row>
     <row r="16">
@@ -2143,31 +2143,31 @@
         <v>881</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2212</v>
+        <v>1721</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2359</v>
+        <v>2209</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8409</v>
+        <v>8572</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4122</v>
+        <v>4212</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4245</v>
+        <v>4075</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>12145</v>
+        <v>11852</v>
       </c>
     </row>
     <row r="19">
@@ -2179,37 +2179,37 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>7068</v>
+        <v>6493</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7768</v>
+        <v>8268</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10173</v>
+        <v>9347</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6223</v>
+        <v>6972</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>12178</v>
+        <v>11707</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>10040</v>
+        <v>11093</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>17847</v>
+        <v>17648</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7412</v>
+        <v>7755</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>15584</v>
+        <v>15278</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>15087</v>
+        <v>14937</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>24233</v>
+        <v>23945</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12740</v>
+        <v>12745</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17835</v>
+        <v>17352</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10252</v>
+        <v>10257</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12433</v>
+        <v>12648</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>51873</v>
+        <v>52907</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>64669</v>
+        <v>65002</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>56670</v>
+        <v>54344</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>60615</v>
+        <v>59977</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>70179</v>
+        <v>69954</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>88518</v>
+        <v>87354</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>70044</v>
+        <v>71109</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>77511</v>
+        <v>77421</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27684</v>
+        <v>28494</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>38974</v>
+        <v>38473</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>24359</v>
+        <v>24591</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>26080</v>
+        <v>25024</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>80712</v>
+        <v>82712</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>96113</v>
+        <v>96209</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>89841</v>
+        <v>88172</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>83215</v>
+        <v>82449</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>102635</v>
+        <v>105544</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>127310</v>
+        <v>124176</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>105569</v>
+        <v>106390</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>106216</v>
+        <v>103394</v>
       </c>
     </row>
     <row r="24">
